--- a/Jogos_da_Semana_FlashScore_2025-05-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-16.xlsx
@@ -662,10 +662,10 @@
         <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.4</v>
@@ -686,16 +686,16 @@
         <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U2" t="n">
         <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -707,7 +707,7 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
@@ -719,7 +719,7 @@
         <v>151</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -829,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -891,31 +891,31 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.53</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P4" t="n">
         <v>1.25</v>
@@ -924,34 +924,34 @@
         <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
+        <v>15</v>
+      </c>
+      <c r="X4" t="n">
         <v>12</v>
       </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
         <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -960,25 +960,25 @@
         <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI4" t="n">
         <v>29</v>
       </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1013,77 +1013,77 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.53</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
       </c>
       <c r="Z5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA5" t="n">
         <v>7</v>
       </c>
-      <c r="AA5" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1092,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1133,19 +1133,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1166,25 +1166,25 @@
         <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
+        <v>15</v>
+      </c>
+      <c r="X6" t="n">
         <v>19</v>
-      </c>
-      <c r="X6" t="n">
-        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1193,26 +1193,26 @@
         <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>81</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1295,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V7" t="n">
         <v>11</v>
@@ -1307,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>15</v>
@@ -1334,7 +1334,7 @@
         <v>9.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1378,10 +1378,10 @@
         <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1390,7 +1390,7 @@
         <v>8.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
         <v>3.9</v>
@@ -1435,7 +1435,7 @@
         <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
@@ -1497,19 +1497,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
@@ -1530,22 +1530,22 @@
         <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T9" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="U9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X9" t="n">
         <v>16.5</v>
@@ -1554,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA9" t="n">
         <v>7.1</v>
@@ -1569,22 +1569,22 @@
         <v>200</v>
       </c>
       <c r="AE9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1622,10 +1622,10 @@
         <v>2.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1649,31 +1649,31 @@
         <v>1.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="T10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V10" t="n">
         <v>9.75</v>
       </c>
       <c r="W10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>9.25</v>
@@ -1685,16 +1685,16 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD10" t="n">
         <v>175</v>
       </c>
       <c r="AE10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
         <v>9.5</v>
@@ -1706,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="11">
@@ -1741,13 +1741,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I11" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1759,7 +1759,7 @@
         <v>1.06</v>
       </c>
       <c r="M11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="N11" t="n">
         <v>1.21</v>
@@ -1771,13 +1771,13 @@
         <v>1.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
         <v>19</v>
@@ -1786,49 +1786,49 @@
         <v>13.5</v>
       </c>
       <c r="V11" t="n">
+        <v>10</v>
+      </c>
+      <c r="W11" t="n">
+        <v>14</v>
+      </c>
+      <c r="X11" t="n">
         <v>10.25</v>
       </c>
-      <c r="W11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>11.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE11" t="n">
         <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1863,22 +1863,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
         <v>7.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>3.2</v>
@@ -1890,16 +1890,16 @@
         <v>1.8</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R12" t="n">
         <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T12" t="n">
         <v>9</v>
@@ -1911,7 +1911,7 @@
         <v>9.75</v>
       </c>
       <c r="W12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
@@ -1923,22 +1923,22 @@
         <v>7.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD12" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>9.5</v>
@@ -1991,7 +1991,7 @@
         <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
@@ -2018,16 +2018,16 @@
         <v>3.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="T13" t="n">
         <v>13.5</v>
       </c>
       <c r="U13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.75</v>
@@ -2057,10 +2057,10 @@
         <v>120</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
@@ -2232,7 +2232,7 @@
         <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
         <v>1.82</v>
@@ -2262,13 +2262,13 @@
         <v>3.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
         <v>2.18</v>
       </c>
       <c r="T15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U15" t="n">
         <v>23</v>
@@ -2289,7 +2289,7 @@
         <v>8.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2779,67 +2779,67 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H21" t="n">
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L21" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="O21" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -2848,25 +2848,25 @@
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
         <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2901,49 +2901,49 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
       <c r="N22" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U22" t="n">
         <v>10</v>
-      </c>
-      <c r="U22" t="n">
-        <v>11</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
@@ -2952,31 +2952,31 @@
         <v>17</v>
       </c>
       <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE22" t="n">
         <v>13</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AF22" t="n">
         <v>21</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>23</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -2988,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -3085,94 +3085,94 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="N24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.7</v>
       </c>
-      <c r="O24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S24" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="U24" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="V24" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="W24" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Y24" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>28</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J25" t="n">
         <v>1.13</v>
@@ -3246,16 +3246,16 @@
         <v>1.62</v>
       </c>
       <c r="T25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3282,16 +3282,16 @@
         <v>6.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>41</v>
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
         <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3386,7 +3386,7 @@
         <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
         <v>7.5</v>
@@ -3395,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="n">
         <v>126</v>
@@ -3451,19 +3451,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
         <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
         <v>1.2</v>
@@ -3484,10 +3484,10 @@
         <v>3.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T27" t="n">
         <v>8.5</v>
@@ -3508,7 +3508,7 @@
         <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
         <v>7.5</v>
@@ -3526,7 +3526,7 @@
         <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
         <v>15</v>
@@ -3572,36 +3572,92 @@
           <t>Shenzhen Juniors</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3634,36 +3690,92 @@
           <t>Foshan Nanshi</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>21</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3696,36 +3808,90 @@
           <t>Suzhou Dongwu</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.27</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W30" t="n">
+        <v>50</v>
+      </c>
+      <c r="X30" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>100</v>
+      </c>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="AE30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3759,19 +3925,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
@@ -3786,10 +3952,10 @@
         <v>1.83</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
         <v>2.1</v>
@@ -3807,7 +3973,7 @@
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -3816,10 +3982,10 @@
         <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
@@ -3831,16 +3997,16 @@
         <v>1250</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI31" t="n">
         <v>51</v>
@@ -4700,10 +4866,10 @@
         <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R39" t="n">
         <v>2.2</v>
@@ -4712,7 +4878,7 @@
         <v>1.62</v>
       </c>
       <c r="T39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U39" t="n">
         <v>9</v>
@@ -4730,7 +4896,7 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
@@ -5035,37 +5201,37 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="I42" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J42" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="K42" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M42" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N42" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="O42" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P42" t="n">
         <v>1.62</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
         <v>2.3</v>
@@ -5077,13 +5243,13 @@
         <v>4.75</v>
       </c>
       <c r="U42" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="V42" t="n">
         <v>9.25</v>
       </c>
       <c r="W42" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="X42" t="n">
         <v>22</v>
@@ -5092,13 +5258,13 @@
         <v>50</v>
       </c>
       <c r="Z42" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="n">
         <v>150</v>
@@ -5108,16 +5274,16 @@
         <v>9</v>
       </c>
       <c r="AF42" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG42" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI42" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ42" t="n">
         <v>80</v>
@@ -5275,19 +5441,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
         <v>1.3</v>
@@ -5359,7 +5525,7 @@
         <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ44" t="n">
         <v>34</v>
@@ -5664,7 +5830,7 @@
         <v>1.65</v>
       </c>
       <c r="P47" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q47" t="n">
         <v>2.4</v>
@@ -5676,10 +5842,10 @@
         <v>1.88</v>
       </c>
       <c r="T47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V47" t="n">
         <v>9.75</v>
@@ -5697,7 +5863,7 @@
         <v>8.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB47" t="n">
         <v>13.5</v>
@@ -5709,10 +5875,10 @@
         <v>500</v>
       </c>
       <c r="AE47" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG47" t="n">
         <v>9.75</v>
@@ -5759,27 +5925,27 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I48" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M48" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="N48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O48" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -5793,25 +5959,25 @@
         <v>8.5</v>
       </c>
       <c r="U48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V48" t="n">
         <v>8.25</v>
       </c>
       <c r="W48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y48" t="n">
         <v>22</v>
       </c>
       <c r="Z48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AB48" t="n">
         <v>14.5</v>
@@ -5823,16 +5989,16 @@
         <v>350</v>
       </c>
       <c r="AE48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI48" t="n">
         <v>35</v>
@@ -5899,13 +6065,13 @@
         <v>1.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T49" t="n">
         <v>8.25</v>
@@ -5914,7 +6080,7 @@
         <v>16.5</v>
       </c>
       <c r="V49" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W49" t="n">
         <v>50</v>
@@ -5941,10 +6107,10 @@
         <v>800</v>
       </c>
       <c r="AE49" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF49" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG49" t="n">
         <v>9</v>
@@ -5953,7 +6119,7 @@
         <v>22</v>
       </c>
       <c r="AI49" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ49" t="n">
         <v>32</v>
@@ -5991,27 +6157,27 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H50" t="n">
         <v>5.4</v>
       </c>
       <c r="I50" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O50" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
         <v>1.38</v>
@@ -6020,31 +6186,31 @@
         <v>2.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T50" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U50" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W50" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X50" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y50" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA50" t="n">
         <v>11.5</v>
@@ -6053,25 +6219,25 @@
         <v>35</v>
       </c>
       <c r="AC50" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF50" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH50" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AI50" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ50" t="n">
         <v>175</v>
@@ -6115,7 +6281,7 @@
         <v>3.95</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -6123,7 +6289,7 @@
         <v>1.22</v>
       </c>
       <c r="M51" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N51" t="n">
         <v>1.65</v>
@@ -6141,7 +6307,7 @@
         <v>1.72</v>
       </c>
       <c r="S51" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T51" t="n">
         <v>7.5</v>
@@ -6162,25 +6328,25 @@
         <v>24</v>
       </c>
       <c r="Z51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA51" t="n">
         <v>7.8</v>
       </c>
       <c r="AB51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD51" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE51" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG51" t="n">
         <v>16</v>
@@ -6189,7 +6355,7 @@
         <v>90</v>
       </c>
       <c r="AI51" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ51" t="n">
         <v>45</v>
@@ -6238,31 +6404,31 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M52" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="N52" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P52" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R52" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S52" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T52" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U52" t="n">
         <v>10</v>
@@ -6280,13 +6446,13 @@
         <v>30</v>
       </c>
       <c r="Z52" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB52" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
         <v>75</v>
@@ -6466,10 +6632,10 @@
         <v>2.2</v>
       </c>
       <c r="H54" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -6477,13 +6643,13 @@
         <v>1.23</v>
       </c>
       <c r="M54" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N54" t="n">
         <v>1.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -6492,10 +6658,10 @@
         <v>2.55</v>
       </c>
       <c r="R54" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S54" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T54" t="n">
         <v>9.25</v>
@@ -6516,7 +6682,7 @@
         <v>22</v>
       </c>
       <c r="Z54" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
         <v>6.5</v>
@@ -6531,13 +6697,13 @@
         <v>300</v>
       </c>
       <c r="AE54" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF54" t="n">
         <v>17</v>
       </c>
       <c r="AG54" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH54" t="n">
         <v>40</v>
@@ -6546,7 +6712,7 @@
         <v>25</v>
       </c>
       <c r="AJ54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -6832,7 +6998,7 @@
         <v>5.5</v>
       </c>
       <c r="H59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I59" t="n">
         <v>1.5</v>
@@ -6850,10 +7016,10 @@
         <v>4.33</v>
       </c>
       <c r="N59" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O59" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P59" t="n">
         <v>1.3</v>
@@ -6862,13 +7028,13 @@
         <v>3.4</v>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S59" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U59" t="n">
         <v>29</v>
@@ -6886,10 +7052,10 @@
         <v>41</v>
       </c>
       <c r="Z59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB59" t="n">
         <v>17</v>
@@ -6898,13 +7064,13 @@
         <v>51</v>
       </c>
       <c r="AD59" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG59" t="n">
         <v>8.5</v>
@@ -7073,27 +7239,27 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I61" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M61" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="N61" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O61" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -7101,55 +7267,55 @@
         <v>1.7</v>
       </c>
       <c r="S61" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>22</v>
+      </c>
+      <c r="V61" t="n">
         <v>13</v>
       </c>
-      <c r="U61" t="n">
-        <v>26</v>
-      </c>
-      <c r="V61" t="n">
-        <v>14</v>
-      </c>
       <c r="W61" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="X61" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y61" t="n">
         <v>40</v>
       </c>
       <c r="Z61" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AB61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC61" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD61" t="n">
         <v>450</v>
       </c>
       <c r="AE61" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG61" t="n">
         <v>8.25</v>
       </c>
-      <c r="AG61" t="n">
-        <v>8</v>
-      </c>
       <c r="AH61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI61" t="n">
         <v>14</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>13.5</v>
       </c>
       <c r="AJ61" t="n">
         <v>24</v>
@@ -7187,13 +7353,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="H62" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I62" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -7204,45 +7370,45 @@
         <v>3.75</v>
       </c>
       <c r="N62" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O62" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S62" t="n">
         <v>1.62</v>
       </c>
       <c r="T62" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="U62" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="V62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W62" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="X62" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y62" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z62" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA62" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AB62" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC62" t="n">
         <v>120</v>
@@ -7251,22 +7417,22 @@
         <v>1000</v>
       </c>
       <c r="AE62" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF62" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG62" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH62" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AI62" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ62" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
@@ -7301,19 +7467,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -7322,10 +7488,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -7352,7 +7518,7 @@
         <v>21</v>
       </c>
       <c r="X63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y63" t="n">
         <v>34</v>
@@ -7370,10 +7536,10 @@
         <v>51</v>
       </c>
       <c r="AD63" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF63" t="n">
         <v>15</v>
@@ -7423,13 +7589,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I64" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J64" t="n">
         <v>1.1</v>
@@ -7450,10 +7616,10 @@
         <v>1.5</v>
       </c>
       <c r="P64" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R64" t="n">
         <v>2.1</v>
@@ -7462,7 +7628,7 @@
         <v>1.67</v>
       </c>
       <c r="T64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U64" t="n">
         <v>15</v>
@@ -7489,7 +7655,7 @@
         <v>19</v>
       </c>
       <c r="AC64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD64" t="n">
         <v>501</v>
@@ -7798,10 +7964,10 @@
         <v>1.55</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
         <v>1.3</v>
@@ -7911,10 +8077,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I68" t="n">
         <v>3.3</v>
@@ -7943,7 +8109,7 @@
         <v>1.65</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T68" t="n">
         <v>7.8</v>
@@ -7955,7 +8121,7 @@
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X68" t="n">
         <v>16</v>
@@ -7964,13 +8130,13 @@
         <v>25</v>
       </c>
       <c r="Z68" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA68" t="n">
         <v>6.6</v>
       </c>
       <c r="AB68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC68" t="n">
         <v>55</v>
@@ -7982,16 +8148,16 @@
         <v>11</v>
       </c>
       <c r="AF68" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH68" t="n">
         <v>45</v>
       </c>
       <c r="AI68" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ68" t="n">
         <v>32</v>
@@ -8046,7 +8212,7 @@
         <v>3.05</v>
       </c>
       <c r="N69" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O69" t="n">
         <v>1.78</v>
@@ -8061,16 +8227,16 @@
         <v>1.72</v>
       </c>
       <c r="S69" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T69" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="U69" t="n">
         <v>21</v>
       </c>
       <c r="V69" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W69" t="n">
         <v>55</v>
@@ -8097,7 +8263,7 @@
         <v>500</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AF69" t="n">
         <v>9</v>
@@ -8109,7 +8275,7 @@
         <v>16</v>
       </c>
       <c r="AI69" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ69" t="n">
         <v>26</v>
@@ -8147,13 +8313,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I70" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -8179,7 +8345,7 @@
         <v>1.62</v>
       </c>
       <c r="S70" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T70" t="n">
         <v>9.25</v>
@@ -8194,7 +8360,7 @@
         <v>26</v>
       </c>
       <c r="X70" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y70" t="n">
         <v>27</v>
@@ -8203,7 +8369,7 @@
         <v>11.25</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB70" t="n">
         <v>13</v>
@@ -8212,19 +8378,19 @@
         <v>55</v>
       </c>
       <c r="AD70" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE70" t="n">
         <v>9.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG70" t="n">
         <v>9.75</v>
       </c>
       <c r="AH70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI70" t="n">
         <v>20</v>
@@ -8268,7 +8434,7 @@
         <v>2.57</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I71" t="n">
         <v>2.7</v>
@@ -8296,7 +8462,7 @@
         <v>1.87</v>
       </c>
       <c r="T71" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U71" t="n">
         <v>12.5</v>
@@ -8311,7 +8477,7 @@
         <v>23</v>
       </c>
       <c r="Y71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z71" t="n">
         <v>8.25</v>
@@ -8320,7 +8486,7 @@
         <v>5.9</v>
       </c>
       <c r="AB71" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC71" t="n">
         <v>65</v>
@@ -8379,13 +8545,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="H72" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -8395,62 +8561,62 @@
         <v>1.7</v>
       </c>
       <c r="O72" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U72" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V72" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="W72" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X72" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="Y72" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z72" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB72" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC72" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD72" t="n">
         <v>250</v>
       </c>
       <c r="AE72" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF72" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AH72" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI72" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ72" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -8484,36 +8650,82 @@
           <t>Suduva</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.8</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.35</v>
+      </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
+      <c r="T73" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U73" t="n">
+        <v>16</v>
+      </c>
+      <c r="V73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>45</v>
+      </c>
+      <c r="X73" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>80</v>
+      </c>
       <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
+      <c r="AE73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8669,31 +8881,31 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H75" t="n">
         <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J75" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M75" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N75" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P75" t="n">
         <v>1.53</v>
@@ -8714,7 +8926,7 @@
         <v>7.5</v>
       </c>
       <c r="V75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W75" t="n">
         <v>15</v>
@@ -8729,7 +8941,7 @@
         <v>7</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB75" t="n">
         <v>21</v>
@@ -9282,16 +9494,16 @@
         <v>1.57</v>
       </c>
       <c r="H80" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I80" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J80" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L80" t="n">
         <v>1.1</v>
@@ -9318,7 +9530,7 @@
         <v>2.63</v>
       </c>
       <c r="T80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U80" t="n">
         <v>11</v>
@@ -9336,10 +9548,10 @@
         <v>17</v>
       </c>
       <c r="Z80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB80" t="n">
         <v>12</v>
@@ -9366,7 +9578,7 @@
         <v>34</v>
       </c>
       <c r="AJ80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -9404,7 +9616,7 @@
         <v>1.48</v>
       </c>
       <c r="H81" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I81" t="n">
         <v>6.5</v>
@@ -9416,10 +9628,10 @@
         <v>13</v>
       </c>
       <c r="L81" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M81" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N81" t="n">
         <v>1.65</v>
@@ -9434,10 +9646,10 @@
         <v>3.5</v>
       </c>
       <c r="R81" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S81" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T81" t="n">
         <v>8</v>
@@ -9461,10 +9673,10 @@
         <v>13</v>
       </c>
       <c r="AA81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC81" t="n">
         <v>51</v>
@@ -10255,13 +10467,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>3.75</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J88" t="n">
         <v>1.03</v>
@@ -10294,7 +10506,7 @@
         <v>2.25</v>
       </c>
       <c r="T88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U88" t="n">
         <v>12</v>
@@ -10306,10 +10518,10 @@
         <v>21</v>
       </c>
       <c r="X88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z88" t="n">
         <v>15</v>
@@ -10339,7 +10551,7 @@
         <v>34</v>
       </c>
       <c r="AI88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ88" t="n">
         <v>26</v>
@@ -10749,7 +10961,7 @@
         <v>3.3</v>
       </c>
       <c r="I93" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
         <v>1.07</v>
@@ -10812,16 +11024,16 @@
         <v>51</v>
       </c>
       <c r="AD93" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE93" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF93" t="n">
         <v>19</v>
       </c>
       <c r="AG93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH93" t="n">
         <v>41</v>
@@ -10987,13 +11199,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I95" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J95" t="n">
         <v>1.03</v>
@@ -11020,10 +11232,10 @@
         <v>3.5</v>
       </c>
       <c r="R95" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S95" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -11053,7 +11265,7 @@
         <v>12</v>
       </c>
       <c r="AC95" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD95" t="n">
         <v>126</v>
@@ -11071,7 +11283,7 @@
         <v>17</v>
       </c>
       <c r="AI95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ95" t="n">
         <v>21</v>
@@ -11231,13 +11443,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H97" t="n">
         <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J97" t="n">
         <v>1.05</v>
@@ -11252,10 +11464,10 @@
         <v>3.75</v>
       </c>
       <c r="N97" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O97" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P97" t="n">
         <v>1.36</v>
@@ -11273,13 +11485,13 @@
         <v>7.5</v>
       </c>
       <c r="U97" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>
@@ -11303,13 +11515,13 @@
         <v>201</v>
       </c>
       <c r="AE97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF97" t="n">
         <v>21</v>
       </c>
       <c r="AG97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH97" t="n">
         <v>41</v>
@@ -11318,7 +11530,7 @@
         <v>34</v>
       </c>
       <c r="AJ97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
@@ -11487,19 +11699,19 @@
         <v>1.03</v>
       </c>
       <c r="K99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M99" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O99" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P99" t="n">
         <v>1.29</v>
@@ -11508,13 +11720,13 @@
         <v>3.5</v>
       </c>
       <c r="R99" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S99" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U99" t="n">
         <v>7</v>
@@ -11672,7 +11884,7 @@
         <v>8</v>
       </c>
       <c r="AF100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG100" t="n">
         <v>9</v>
@@ -11963,13 +12175,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H103" t="n">
         <v>2.9</v>
       </c>
       <c r="I103" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J103" t="n">
         <v>1.1</v>
@@ -12005,7 +12217,7 @@
         <v>7</v>
       </c>
       <c r="U103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V103" t="n">
         <v>11</v>
@@ -12038,7 +12250,7 @@
         <v>7.5</v>
       </c>
       <c r="AF103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG103" t="n">
         <v>11</v>
@@ -12097,7 +12309,7 @@
         <v>1.01</v>
       </c>
       <c r="K104" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L104" t="n">
         <v>1.07</v>
@@ -12216,10 +12428,10 @@
         <v>2.35</v>
       </c>
       <c r="J105" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K105" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L105" t="n">
         <v>1.2</v>
@@ -12573,13 +12785,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H108" t="n">
         <v>5.5</v>
       </c>
       <c r="I108" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J108" t="n">
         <v>1.01</v>
@@ -12588,46 +12800,46 @@
         <v>34</v>
       </c>
       <c r="L108" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="O108" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="P108" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Q108" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="R108" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S108" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T108" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X108" t="n">
         <v>11</v>
       </c>
       <c r="Y108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z108" t="n">
         <v>34</v>
@@ -12639,13 +12851,13 @@
         <v>15</v>
       </c>
       <c r="AC108" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE108" t="n">
         <v>29</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>34</v>
       </c>
       <c r="AF108" t="n">
         <v>41</v>
@@ -12695,10 +12907,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H109" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I109" t="n">
         <v>7</v>
@@ -12710,34 +12922,34 @@
         <v>17</v>
       </c>
       <c r="L109" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M109" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O109" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q109" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R109" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S109" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T109" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U109" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
@@ -12752,10 +12964,10 @@
         <v>23</v>
       </c>
       <c r="Z109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB109" t="n">
         <v>19</v>
@@ -12764,10 +12976,10 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF109" t="n">
         <v>41</v>
@@ -12779,7 +12991,7 @@
         <v>81</v>
       </c>
       <c r="AI109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ109" t="n">
         <v>41</v>
@@ -12838,10 +13050,10 @@
         <v>3.4</v>
       </c>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O110" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P110" t="n">
         <v>1.4</v>
@@ -13183,7 +13395,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H113" t="n">
         <v>3.6</v>
@@ -13210,22 +13422,22 @@
         <v>2.42</v>
       </c>
       <c r="P113" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="Q113" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R113" t="n">
         <v>1.42</v>
       </c>
       <c r="S113" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T113" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U113" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V113" t="n">
         <v>9.75</v>
@@ -13237,40 +13449,40 @@
         <v>18</v>
       </c>
       <c r="Y113" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z113" t="n">
         <v>9.25</v>
       </c>
       <c r="AA113" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB113" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC113" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD113" t="n">
         <v>150</v>
       </c>
       <c r="AE113" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF113" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG113" t="n">
         <v>9.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI113" t="n">
         <v>17</v>
       </c>
       <c r="AJ113" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="114">
@@ -13308,10 +13520,10 @@
         <v>2.32</v>
       </c>
       <c r="H114" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I114" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="J114" t="n">
         <v>1.03</v>
@@ -13326,16 +13538,16 @@
         <v>4.65</v>
       </c>
       <c r="N114" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O114" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="P114" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q114" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R114" t="n">
         <v>1.42</v>
@@ -13344,28 +13556,28 @@
         <v>2.65</v>
       </c>
       <c r="T114" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U114" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V114" t="n">
         <v>9.25</v>
       </c>
       <c r="W114" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X114" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z114" t="n">
         <v>9.25</v>
       </c>
       <c r="AA114" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB114" t="n">
         <v>10.75</v>
@@ -13377,22 +13589,22 @@
         <v>150</v>
       </c>
       <c r="AE114" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF114" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH114" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI114" t="n">
         <v>19</v>
       </c>
       <c r="AJ114" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -13454,7 +13666,7 @@
         <v>2.3</v>
       </c>
       <c r="P115" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q115" t="n">
         <v>3.2</v>
@@ -13481,13 +13693,13 @@
         <v>12</v>
       </c>
       <c r="Y115" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z115" t="n">
         <v>9</v>
       </c>
       <c r="AA115" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB115" t="n">
         <v>13</v>
@@ -13499,16 +13711,16 @@
         <v>250</v>
       </c>
       <c r="AE115" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF115" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG115" t="n">
         <v>13.5</v>
       </c>
       <c r="AH115" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI115" t="n">
         <v>35</v>
@@ -13549,13 +13761,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J116" t="n">
         <v>1.03</v>
@@ -13576,34 +13788,34 @@
         <v>2.3</v>
       </c>
       <c r="P116" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q116" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R116" t="n">
         <v>1.47</v>
       </c>
       <c r="S116" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T116" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="U116" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V116" t="n">
         <v>9.75</v>
       </c>
       <c r="W116" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X116" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z116" t="n">
         <v>9</v>
@@ -13612,31 +13824,31 @@
         <v>7.2</v>
       </c>
       <c r="AB116" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC116" t="n">
         <v>35</v>
       </c>
       <c r="AD116" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE116" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG116" t="n">
         <v>9.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI116" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ116" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
@@ -13671,10 +13883,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H117" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I117" t="n">
         <v>5</v>
@@ -13701,25 +13913,25 @@
         <v>1.39</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R117" t="n">
         <v>1.72</v>
       </c>
       <c r="S117" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T117" t="n">
         <v>7.5</v>
       </c>
       <c r="U117" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V117" t="n">
         <v>7.8</v>
       </c>
       <c r="W117" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X117" t="n">
         <v>12.5</v>
@@ -13731,13 +13943,13 @@
         <v>7.6</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB117" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD117" t="n">
         <v>450</v>
@@ -13793,31 +14005,31 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>3.6</v>
       </c>
       <c r="I118" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J118" t="n">
         <v>1.04</v>
       </c>
       <c r="K118" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L118" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M118" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="N118" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O118" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P118" t="n">
         <v>1.32</v>
@@ -13829,34 +14041,34 @@
         <v>1.55</v>
       </c>
       <c r="S118" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T118" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="U118" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V118" t="n">
         <v>9.25</v>
       </c>
       <c r="W118" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X118" t="n">
         <v>17</v>
       </c>
       <c r="Y118" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z118" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA118" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB118" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC118" t="n">
         <v>45</v>
@@ -13874,10 +14086,10 @@
         <v>10</v>
       </c>
       <c r="AH118" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI118" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ118" t="n">
         <v>24</v>
@@ -13915,90 +14127,90 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="H119" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I119" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="M119" t="n">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
       <c r="N119" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R119" t="n">
         <v>1.8</v>
       </c>
-      <c r="O119" t="n">
+      <c r="S119" t="n">
         <v>1.8</v>
       </c>
-      <c r="P119" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R119" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S119" t="n">
-        <v>2</v>
-      </c>
       <c r="T119" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="U119" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V119" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W119" t="n">
+        <v>30</v>
+      </c>
+      <c r="X119" t="n">
         <v>24</v>
       </c>
-      <c r="X119" t="n">
-        <v>18</v>
-      </c>
       <c r="Y119" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI119" t="n">
         <v>26</v>
       </c>
-      <c r="Z119" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA119" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ119" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120">
@@ -14033,90 +14245,90 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="H120" t="n">
         <v>3.25</v>
       </c>
       <c r="I120" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M120" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="N120" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O120" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P120" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R120" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S120" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T120" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="U120" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V120" t="n">
         <v>9.75</v>
       </c>
-      <c r="V120" t="n">
-        <v>9.25</v>
-      </c>
       <c r="W120" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X120" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y120" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ120" t="n">
         <v>35</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
